--- a/Day 2 Assignment.xlsx
+++ b/Day 2 Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUVI Assignment_01\GUVI-Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C66124-696F-4335-91BE-F4E07DF577DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D203DB53-D5FD-4D52-8A1B-3B204163F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
   <si>
     <t>Test Case Design techniques</t>
   </si>
@@ -380,6 +380,72 @@
   </si>
   <si>
     <t>1.account  should not created and showing the error msg((It should meet the reequirements(Must onelower case or upper case letter, special charaters, numbers).</t>
+  </si>
+  <si>
+    <t>TS_003(User navigation)</t>
+  </si>
+  <si>
+    <t>validate the user able to navigate through the app</t>
+  </si>
+  <si>
+    <t>1.It should navigate to the home page</t>
+  </si>
+  <si>
+    <t>validate the search fuctionality is working fine or not</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter the correct pattern
+3.Click on ok button</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.search whatsapp in search bar
+3.click enter</t>
+  </si>
+  <si>
+    <t>1.whatsapp will appear in the search app</t>
+  </si>
+  <si>
+    <t>validate entering the invalid apps in search option</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.search invalid appin search bar
+3.click enter</t>
+  </si>
+  <si>
+    <t>1.Msg should diplay "App not found"</t>
+  </si>
+  <si>
+    <t>validate the user able to click on the restart, reboot and power off button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.login to the phone
+2.perform the actions reboot, restart and switch off </t>
+  </si>
+  <si>
+    <t>1.User should able to perform all the actions</t>
+  </si>
+  <si>
+    <t>validatethe user without performing any action for few minutes in app</t>
+  </si>
+  <si>
+    <t>1.login to the phone
+2.Dont perform any action for few minutess</t>
+  </si>
+  <si>
+    <t>Validate the user able to click the provided link on the email</t>
+  </si>
+  <si>
+    <t>1.successful account creation user should get the confirmation email
+2.click on the link provided in the email(er1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should taken to the appropriate login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.phone should automatically turned off </t>
   </si>
 </sst>
 </file>
@@ -591,11 +657,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -606,7 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -614,18 +676,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,9 +692,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,86 +1002,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="17" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H17" t="s">
@@ -1025,286 +1089,231 @@
       </c>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="23" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
+      <c r="G21" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="G22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
+      <c r="G23" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E24" s="12"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
+      <c r="E25" s="6"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
+      <c r="E26" s="6"/>
+      <c r="H26" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
+      <c r="E27" s="6"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
+      <c r="G28" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
+      <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="17" t="s">
+      <c r="M29" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="G30" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="20"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="5:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="G31" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="9"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="19" t="s">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="11"/>
+      <c r="M32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1325,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF13336-DDF2-4178-AEF7-537195D78F3F}">
-  <dimension ref="B3:G48"/>
+  <dimension ref="B3:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,75 +1350,75 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1439,19 +1448,19 @@
     </row>
     <row r="30" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="3:7" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="19" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1462,10 +1471,10 @@
       <c r="D32" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1473,7 +1482,7 @@
       <c r="D33" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G33" t="s">
@@ -1484,7 +1493,7 @@
       <c r="D34" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G34" t="s">
@@ -1495,10 +1504,10 @@
       <c r="D35" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1506,7 +1515,7 @@
       <c r="D36" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G36" t="s">
@@ -1517,7 +1526,7 @@
       <c r="D37" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G37" t="s">
@@ -1531,7 +1540,7 @@
       <c r="D41" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F41" t="s">
@@ -1542,41 +1551,108 @@
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
         <v>101</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>103</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
+    <row r="45" spans="3:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="3:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+    <row r="48" spans="3:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>70</v>
+    <row r="52" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Day 2 Assignment.xlsx
+++ b/Day 2 Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUVI Assignment_01\GUVI-Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D203DB53-D5FD-4D52-8A1B-3B204163F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D02DF0-6070-4EB8-A626-D7A3B491D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF13336-DDF2-4178-AEF7-537195D78F3F}">
   <dimension ref="B3:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Day 2 Assignment.xlsx
+++ b/Day 2 Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUVI Assignment_01\GUVI-Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D02DF0-6070-4EB8-A626-D7A3B491D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23A6377-241A-4574-9E7E-FB165CBD9B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="143">
   <si>
     <t>Test Case Design techniques</t>
   </si>
@@ -363,9 +363,6 @@
     <t>user should able to delete the account</t>
   </si>
   <si>
-    <t>(It should meet the reequirements(Must onelower case or upper case letter, special charaters, numbers).</t>
-  </si>
-  <si>
     <t>validate the user doesnot give the correct complexity for account creation</t>
   </si>
   <si>
@@ -446,6 +443,45 @@
   </si>
   <si>
     <t xml:space="preserve">1.phone should automatically turned off </t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>TC_RF_OO1</t>
+  </si>
+  <si>
+    <t>TC_RF_OO2</t>
+  </si>
+  <si>
+    <t>TC_RF_OO3</t>
+  </si>
+  <si>
+    <t>TC_RF_OO4</t>
+  </si>
+  <si>
+    <t>TC_RF_OO5</t>
+  </si>
+  <si>
+    <t>TC_RF_OO6</t>
+  </si>
+  <si>
+    <t>TC_RF_OO7</t>
+  </si>
+  <si>
+    <t>TC_RF_OO8</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -524,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -653,11 +689,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -700,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1334,19 +1388,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF13336-DDF2-4178-AEF7-537195D78F3F}">
-  <dimension ref="B3:G61"/>
+  <dimension ref="B3:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
@@ -1414,7 +1473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C23" s="18" t="s">
         <v>66</v>
       </c>
@@ -1422,7 +1481,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>68</v>
       </c>
@@ -1430,7 +1489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>69</v>
       </c>
@@ -1438,7 +1497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>70</v>
       </c>
@@ -1446,8 +1505,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="3:7" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:11" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="C31" s="19" t="s">
         <v>74</v>
       </c>
@@ -1463,8 +1525,23 @@
       <c r="G31" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H31" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
       <c r="C32" t="s">
         <v>79</v>
       </c>
@@ -1478,7 +1555,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
       <c r="D33" t="s">
         <v>85</v>
       </c>
@@ -1489,7 +1572,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
       <c r="D34" t="s">
         <v>86</v>
       </c>
@@ -1500,7 +1589,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
       <c r="D35" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1606,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
       <c r="D36" t="s">
         <v>94</v>
       </c>
@@ -1522,7 +1623,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
       <c r="D37" t="s">
         <v>95</v>
       </c>
@@ -1533,7 +1640,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
       <c r="C41" t="s">
         <v>99</v>
       </c>
@@ -1541,19 +1651,28 @@
         <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
       <c r="D43" t="s">
         <v>101</v>
       </c>
@@ -1564,18 +1683,38 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
       <c r="D45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" t="s">
         <v>128</v>
       </c>
-      <c r="G45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
       <c r="D47" t="s">
         <v>104</v>
       </c>
@@ -1586,76 +1725,110 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="3:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
         <v>110</v>
       </c>
-      <c r="G48" t="s">
+    </row>
+    <row r="52" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>112</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="1" t="s">
+    </row>
+    <row r="54" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="G54" t="s">
         <v>117</v>
       </c>
-      <c r="G54" t="s">
+    </row>
+    <row r="56" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="3:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
+      <c r="E56" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" t="s">
         <v>120</v>
       </c>
-      <c r="G56" t="s">
+    </row>
+    <row r="57" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>